--- a/OGHIST_2025_10_07.xlsx
+++ b/OGHIST_2025_10_07.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\source\GNIClassLookup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5C73E8A-D085-47AD-8CBE-41D0722DD3B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD1568B0-44E2-48CF-B0DA-6C6DDD0682B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="730" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -169,7 +169,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14897" uniqueCount="969">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14897" uniqueCount="972">
   <si>
     <t>Document:</t>
   </si>
@@ -3116,6 +3116,15 @@
   </si>
   <si>
     <t>24</t>
+  </si>
+  <si>
+    <t>Sao Tome and Príncipe</t>
+  </si>
+  <si>
+    <t>Turkiye</t>
+  </si>
+  <si>
+    <t>Cote d'Ivoire</t>
   </si>
 </sst>
 </file>
@@ -6606,10 +6615,10 @@
   <dimension ref="A1:IS225"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <pane xSplit="3270" ySplit="495" topLeftCell="A32" activePane="bottomLeft"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A133" sqref="A133:XFD133"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <pane xSplit="3270" ySplit="495" activePane="bottomLeft"/>
+      <selection pane="topRight" activeCell="R1" sqref="R1:R1048576"/>
+      <selection pane="bottomLeft" activeCell="A34" sqref="A34"/>
+      <selection pane="bottomRight" activeCell="A184" sqref="A184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -12556,7 +12565,7 @@
     </row>
     <row r="49" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A49" s="44" t="s">
-        <v>306</v>
+        <v>971</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>548</v>
@@ -26598,7 +26607,7 @@
     </row>
     <row r="167" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A167" s="44" t="s">
-        <v>907</v>
+        <v>969</v>
       </c>
       <c r="B167" s="3" t="s">
         <v>546</v>
@@ -30644,7 +30653,7 @@
     </row>
     <row r="201" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A201" s="44" t="s">
-        <v>908</v>
+        <v>970</v>
       </c>
       <c r="B201" s="3" t="s">
         <v>548</v>
@@ -54605,11 +54614,6 @@
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events"/>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
@@ -54617,31 +54621,14 @@
 </FormTemplates>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events"/>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <i008215bacac45029ee8cafff4c8e93b xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">DECDG - Development Data Group</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">2ae5ce6c-bf4c-4936-8a28-da4d57c09588</TermId>
-        </TermInfo>
-      </Terms>
-    </i008215bacac45029ee8cafff4c8e93b>
-    <Abstract xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d" xsi:nil="true"/>
-    <WBDocs_Access_To_Info_Exception xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d">12. Not Assessed</WBDocs_Access_To_Info_Exception>
-    <TaxCatchAll xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d">
-      <Value>5</Value>
-    </TaxCatchAll>
-    <o1cb080a3dca4eb8a0fd03c7cc8bf8f7 xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </o1cb080a3dca4eb8a0fd03c7cc8bf8f7>
-    <OneCMS_Subcategory xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d" xsi:nil="true"/>
-    <WBDocs_Information_Classification xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d">Official Use Only</WBDocs_Information_Classification>
-    <OneCMS_Category xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d" xsi:nil="true"/>
-    <WBDocs_Document_Date xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d">2023-06-26T15:05:53+00:00</WBDocs_Document_Date>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="2a6c10d7-b926-4fc0-945e-3cbf5049f6bd" ContentTypeId="0x010100F4C63C3BD852AE468EAEFD0E6C57C64F02" PreviousValue="false"/>
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -54887,11 +54874,41 @@
 </file>
 
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="2a6c10d7-b926-4fc0-945e-3cbf5049f6bd" ContentTypeId="0x010100F4C63C3BD852AE468EAEFD0E6C57C64F02" PreviousValue="false"/>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <i008215bacac45029ee8cafff4c8e93b xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">DECDG - Development Data Group</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">2ae5ce6c-bf4c-4936-8a28-da4d57c09588</TermId>
+        </TermInfo>
+      </Terms>
+    </i008215bacac45029ee8cafff4c8e93b>
+    <Abstract xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d" xsi:nil="true"/>
+    <WBDocs_Access_To_Info_Exception xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d">12. Not Assessed</WBDocs_Access_To_Info_Exception>
+    <TaxCatchAll xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d">
+      <Value>5</Value>
+    </TaxCatchAll>
+    <o1cb080a3dca4eb8a0fd03c7cc8bf8f7 xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </o1cb080a3dca4eb8a0fd03c7cc8bf8f7>
+    <OneCMS_Subcategory xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d" xsi:nil="true"/>
+    <WBDocs_Information_Classification xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d">Official Use Only</WBDocs_Information_Classification>
+    <OneCMS_Category xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d" xsi:nil="true"/>
+    <WBDocs_Document_Date xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d">2023-06-26T15:05:53+00:00</WBDocs_Document_Date>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F08796FC-F2AF-40F3-B2C0-0FC104661227}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3DB51E32-A88A-4A12-90DD-F41DD2BB57BF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
@@ -54899,20 +54916,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F08796FC-F2AF-40F3-B2C0-0FC104661227}">
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E0163D1-75F3-479B-97C7-B5428585AAD7}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CA08370-99A5-4FA5-A2C3-E68D6DF39C51}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="3e02667f-0271-471b-bd6e-11a2e16def1d"/>
+    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -54936,9 +54943,11 @@
 </file>
 
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E0163D1-75F3-479B-97C7-B5428585AAD7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CA08370-99A5-4FA5-A2C3-E68D6DF39C51}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="3e02667f-0271-471b-bd6e-11a2e16def1d"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/OGHIST_2025_10_07.xlsx
+++ b/OGHIST_2025_10_07.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\source\GNIClassLookup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD1568B0-44E2-48CF-B0DA-6C6DDD0682B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38F63E9A-1C94-4055-B747-F02BE2D05730}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="730" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3118,13 +3118,13 @@
     <t>24</t>
   </si>
   <si>
-    <t>Sao Tome and Príncipe</t>
-  </si>
-  <si>
     <t>Turkiye</t>
   </si>
   <si>
     <t>Cote d'Ivoire</t>
+  </si>
+  <si>
+    <t>Sao Tome and Principe</t>
   </si>
 </sst>
 </file>
@@ -6615,9 +6615,9 @@
   <dimension ref="A1:IS225"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <pane xSplit="3270" ySplit="495" activePane="bottomLeft"/>
+      <pane xSplit="3270" ySplit="495" topLeftCell="A157" activePane="bottomLeft"/>
       <selection pane="topRight" activeCell="R1" sqref="R1:R1048576"/>
-      <selection pane="bottomLeft" activeCell="A34" sqref="A34"/>
+      <selection pane="bottomLeft" activeCell="A167" sqref="A167"/>
       <selection pane="bottomRight" activeCell="A184" sqref="A184"/>
     </sheetView>
   </sheetViews>
@@ -12565,7 +12565,7 @@
     </row>
     <row r="49" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A49" s="44" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>548</v>
@@ -26607,7 +26607,7 @@
     </row>
     <row r="167" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A167" s="44" t="s">
-        <v>969</v>
+        <v>971</v>
       </c>
       <c r="B167" s="3" t="s">
         <v>546</v>
@@ -30653,7 +30653,7 @@
     </row>
     <row r="201" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A201" s="44" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="B201" s="3" t="s">
         <v>548</v>
@@ -54614,6 +54614,11 @@
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events"/>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
@@ -54621,14 +54626,31 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events"/>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="2a6c10d7-b926-4fc0-945e-3cbf5049f6bd" ContentTypeId="0x010100F4C63C3BD852AE468EAEFD0E6C57C64F02" PreviousValue="false"/>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <i008215bacac45029ee8cafff4c8e93b xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">DECDG - Development Data Group</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">2ae5ce6c-bf4c-4936-8a28-da4d57c09588</TermId>
+        </TermInfo>
+      </Terms>
+    </i008215bacac45029ee8cafff4c8e93b>
+    <Abstract xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d" xsi:nil="true"/>
+    <WBDocs_Access_To_Info_Exception xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d">12. Not Assessed</WBDocs_Access_To_Info_Exception>
+    <TaxCatchAll xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d">
+      <Value>5</Value>
+    </TaxCatchAll>
+    <o1cb080a3dca4eb8a0fd03c7cc8bf8f7 xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </o1cb080a3dca4eb8a0fd03c7cc8bf8f7>
+    <OneCMS_Subcategory xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d" xsi:nil="true"/>
+    <WBDocs_Information_Classification xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d">Official Use Only</WBDocs_Information_Classification>
+    <OneCMS_Category xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d" xsi:nil="true"/>
+    <WBDocs_Document_Date xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d">2023-06-26T15:05:53+00:00</WBDocs_Document_Date>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -54874,33 +54896,19 @@
 </file>
 
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <i008215bacac45029ee8cafff4c8e93b xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">DECDG - Development Data Group</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">2ae5ce6c-bf4c-4936-8a28-da4d57c09588</TermId>
-        </TermInfo>
-      </Terms>
-    </i008215bacac45029ee8cafff4c8e93b>
-    <Abstract xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d" xsi:nil="true"/>
-    <WBDocs_Access_To_Info_Exception xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d">12. Not Assessed</WBDocs_Access_To_Info_Exception>
-    <TaxCatchAll xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d">
-      <Value>5</Value>
-    </TaxCatchAll>
-    <o1cb080a3dca4eb8a0fd03c7cc8bf8f7 xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </o1cb080a3dca4eb8a0fd03c7cc8bf8f7>
-    <OneCMS_Subcategory xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d" xsi:nil="true"/>
-    <WBDocs_Information_Classification xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d">Official Use Only</WBDocs_Information_Classification>
-    <OneCMS_Category xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d" xsi:nil="true"/>
-    <WBDocs_Document_Date xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d">2023-06-26T15:05:53+00:00</WBDocs_Document_Date>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="2a6c10d7-b926-4fc0-945e-3cbf5049f6bd" ContentTypeId="0x010100F4C63C3BD852AE468EAEFD0E6C57C64F02" PreviousValue="false"/>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3DB51E32-A88A-4A12-90DD-F41DD2BB57BF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F08796FC-F2AF-40F3-B2C0-0FC104661227}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -54908,18 +54916,12 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3DB51E32-A88A-4A12-90DD-F41DD2BB57BF}">
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CA08370-99A5-4FA5-A2C3-E68D6DF39C51}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E0163D1-75F3-479B-97C7-B5428585AAD7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="3e02667f-0271-471b-bd6e-11a2e16def1d"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -54943,11 +54945,9 @@
 </file>
 
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CA08370-99A5-4FA5-A2C3-E68D6DF39C51}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E0163D1-75F3-479B-97C7-B5428585AAD7}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="3e02667f-0271-471b-bd6e-11a2e16def1d"/>
+    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/OGHIST_2025_10_07.xlsx
+++ b/OGHIST_2025_10_07.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\source\GNIClassLookup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38F63E9A-1C94-4055-B747-F02BE2D05730}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C83BC448-5D11-42EA-9A17-AEA779D4EFA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="730" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2575,9 +2575,6 @@
     <t>Netherlands Antilles (former)</t>
   </si>
   <si>
-    <t>Curaçao</t>
-  </si>
-  <si>
     <t>St. Martin (French part)</t>
   </si>
   <si>
@@ -3125,6 +3122,9 @@
   </si>
   <si>
     <t>Sao Tome and Principe</t>
+  </si>
+  <si>
+    <t>Curacao</t>
   </si>
 </sst>
 </file>
@@ -4312,63 +4312,63 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="42" t="s">
+        <v>874</v>
+      </c>
+      <c r="B1" s="42" t="s">
         <v>875</v>
-      </c>
-      <c r="B1" s="42" t="s">
-        <v>876</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="42" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="B2" s="42" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="42" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="B3" s="42" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="42" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="B4" s="42" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="42" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="B5" s="42" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="42" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="B6" s="42" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="42" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="B7" s="42" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="42" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="B8" s="42">
         <v>189</v>
@@ -4376,7 +4376,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="42" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="B9" s="42">
         <v>2019</v>
@@ -4384,10 +4384,10 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="42" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="B10" s="42" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
   </sheetData>
@@ -4457,7 +4457,7 @@
         <v>609</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
@@ -4578,7 +4578,7 @@
         <v>14</v>
       </c>
       <c r="AU4" s="41" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="5" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -4849,46 +4849,46 @@
         <v>784</v>
       </c>
       <c r="AN6" s="35" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="AO6" s="35" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="AP6" s="35" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="AQ6" s="35" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="AR6" s="35" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AS6" s="35" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="AT6" s="35" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="AU6" s="35" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="AV6" s="35" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="AW6" s="35" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="AX6" s="35" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="AY6" s="35" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="AZ6" s="35" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="BA6" s="35" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="7" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5203,13 +5203,13 @@
         <v>655</v>
       </c>
       <c r="AO11" s="35" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="AP11" s="35" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="AQ11" s="35" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="AR11" s="35" t="s">
         <v>655</v>
@@ -5224,19 +5224,19 @@
         <v>655</v>
       </c>
       <c r="AV11" s="35" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="AW11" s="35" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="AX11" s="35" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="AY11" s="35" t="s">
         <v>664</v>
       </c>
       <c r="AZ11" s="51" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="BA11" s="51" t="s">
         <v>664</v>
@@ -5355,46 +5355,46 @@
         <v>786</v>
       </c>
       <c r="AN12" s="36" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="AO12" s="36" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="AP12" s="36" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="AQ12" s="36" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="AR12" s="36" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="AS12" s="36" t="s">
         <v>777</v>
       </c>
       <c r="AT12" s="36" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="AU12" s="36" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="AV12" s="36" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="AW12" s="36" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="AX12" s="36" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="AY12" s="36" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="AZ12" s="36" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="BA12" s="36" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="BC12" s="57"/>
     </row>
@@ -5511,46 +5511,46 @@
         <v>788</v>
       </c>
       <c r="AN13" s="36" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="AO13" s="36" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="AP13" s="36" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="AQ13" s="36" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="AR13" s="36" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="AS13" s="36" t="s">
         <v>774</v>
       </c>
       <c r="AT13" s="36" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="AU13" s="36" t="s">
         <v>788</v>
       </c>
       <c r="AV13" s="36" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="AW13" s="36" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="AX13" s="36" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="AY13" s="36" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="AZ13" s="36" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="BA13" s="36" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="14" spans="1:55" x14ac:dyDescent="0.2">
@@ -5797,46 +5797,46 @@
         <v>787</v>
       </c>
       <c r="AN15" s="36" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="AO15" s="36" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="AP15" s="36" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="AQ15" s="36" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="AR15" s="36" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="AS15" s="36" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="AT15" s="36" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="AU15" s="36" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="AV15" s="36" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="AW15" s="36" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="AX15" s="36" t="s">
+        <v>915</v>
+      </c>
+      <c r="AY15" s="36" t="s">
         <v>916</v>
       </c>
-      <c r="AY15" s="36" t="s">
-        <v>917</v>
-      </c>
       <c r="AZ15" s="36" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="BA15" s="36" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="16" spans="1:55" ht="6" customHeight="1" x14ac:dyDescent="0.2">
@@ -5959,43 +5959,43 @@
         <v>665</v>
       </c>
       <c r="AO17" s="37" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="AP17" s="37" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="AQ17" s="37" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="AR17" s="37" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="AS17" s="37" t="s">
         <v>775</v>
       </c>
       <c r="AT17" s="37" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="AU17" s="37" t="s">
         <v>789</v>
       </c>
       <c r="AV17" s="37" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="AW17" s="37" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="AX17" s="37" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="AY17" s="37" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="AZ17" s="37" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="BA17" s="37" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="18" spans="1:53" x14ac:dyDescent="0.2">
@@ -6091,13 +6091,13 @@
         <v>655</v>
       </c>
       <c r="AO21" s="35" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="AP21" s="35" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="AQ21" s="35" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="AR21" s="35" t="s">
         <v>655</v>
@@ -6112,19 +6112,19 @@
         <v>655</v>
       </c>
       <c r="AV21" s="3" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="AW21" s="51" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="AX21" s="51" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="AY21" s="51" t="s">
         <v>664</v>
       </c>
       <c r="AZ21" s="51" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="BA21" s="51" t="s">
         <v>664</v>
@@ -6207,46 +6207,46 @@
         <v>790</v>
       </c>
       <c r="AN22" s="35" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="AO22" s="35" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="AP22" s="35" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AQ22" s="35" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AR22" s="35" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="AS22" s="35" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="AT22" s="3" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="AU22" s="3" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="AV22" s="3" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="AW22" s="51" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="AX22" s="51" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="AY22" s="51" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="AZ22" s="51" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="BA22" s="51" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="23" spans="1:53" x14ac:dyDescent="0.2">
@@ -6326,46 +6326,46 @@
         <v>791</v>
       </c>
       <c r="AN23" s="35" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="AO23" s="35" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="AP23" s="35" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="AQ23" s="35" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="AR23" s="35" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="AS23" s="35" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="AT23" s="3" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="AU23" s="3" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="AV23" s="3" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="AW23" s="51" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="AX23" s="51" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="AY23" s="51" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="AZ23" s="51" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="BA23" s="51" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="24" spans="1:53" x14ac:dyDescent="0.2">
@@ -6459,46 +6459,46 @@
         <v>792</v>
       </c>
       <c r="AN24" s="38" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="AO24" s="38" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="AP24" s="38" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="AQ24" s="38" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="AR24" s="38" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="AS24" s="38" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="AT24" s="20" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="AU24" s="20" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="AV24" s="20" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="AW24" s="52" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="AX24" s="52" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="AY24" s="52" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="AZ24" s="52" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="BA24" s="52" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="25" spans="1:53" x14ac:dyDescent="0.2">
@@ -6552,7 +6552,7 @@
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
@@ -6615,9 +6615,9 @@
   <dimension ref="A1:IS225"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <pane xSplit="3270" ySplit="495" topLeftCell="A157" activePane="bottomLeft"/>
+      <pane xSplit="3270" ySplit="495" activePane="bottomLeft"/>
       <selection pane="topRight" activeCell="R1" sqref="R1:R1048576"/>
-      <selection pane="bottomLeft" activeCell="A167" sqref="A167"/>
+      <selection pane="bottomLeft" activeCell="A49" sqref="A49"/>
       <selection pane="bottomRight" activeCell="A184" sqref="A184"/>
     </sheetView>
   </sheetViews>
@@ -6639,7 +6639,7 @@
   <sheetData>
     <row r="1" spans="1:253" s="58" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="59" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="B1" s="60">
         <v>87</v>
@@ -6681,79 +6681,79 @@
         <v>99</v>
       </c>
       <c r="O1" s="60" t="s">
+        <v>943</v>
+      </c>
+      <c r="P1" s="60" t="s">
         <v>944</v>
       </c>
-      <c r="P1" s="60" t="s">
+      <c r="Q1" s="60" t="s">
         <v>945</v>
       </c>
-      <c r="Q1" s="60" t="s">
+      <c r="R1" s="60" t="s">
         <v>946</v>
       </c>
-      <c r="R1" s="60" t="s">
+      <c r="S1" s="60" t="s">
         <v>947</v>
       </c>
-      <c r="S1" s="60" t="s">
+      <c r="T1" s="60" t="s">
         <v>948</v>
       </c>
-      <c r="T1" s="60" t="s">
+      <c r="U1" s="60" t="s">
         <v>949</v>
       </c>
-      <c r="U1" s="60" t="s">
+      <c r="V1" s="60" t="s">
         <v>950</v>
       </c>
-      <c r="V1" s="60" t="s">
+      <c r="W1" s="60" t="s">
         <v>951</v>
       </c>
-      <c r="W1" s="60" t="s">
+      <c r="X1" s="60" t="s">
         <v>952</v>
       </c>
-      <c r="X1" s="60" t="s">
+      <c r="Y1" s="60" t="s">
         <v>953</v>
       </c>
-      <c r="Y1" s="60" t="s">
+      <c r="Z1" s="60" t="s">
         <v>954</v>
       </c>
-      <c r="Z1" s="60" t="s">
+      <c r="AA1" s="60" t="s">
         <v>955</v>
       </c>
-      <c r="AA1" s="60" t="s">
+      <c r="AB1" s="60" t="s">
         <v>956</v>
       </c>
-      <c r="AB1" s="60" t="s">
+      <c r="AC1" s="60" t="s">
         <v>957</v>
       </c>
-      <c r="AC1" s="60" t="s">
+      <c r="AD1" s="60" t="s">
         <v>958</v>
       </c>
-      <c r="AD1" s="60" t="s">
+      <c r="AE1" s="60" t="s">
         <v>959</v>
       </c>
-      <c r="AE1" s="60" t="s">
+      <c r="AF1" s="60" t="s">
         <v>960</v>
       </c>
-      <c r="AF1" s="60" t="s">
+      <c r="AG1" s="60" t="s">
         <v>961</v>
       </c>
-      <c r="AG1" s="60" t="s">
+      <c r="AH1" s="60" t="s">
         <v>962</v>
       </c>
-      <c r="AH1" s="60" t="s">
+      <c r="AI1" s="60" t="s">
         <v>963</v>
       </c>
-      <c r="AI1" s="60" t="s">
+      <c r="AJ1" s="60" t="s">
         <v>964</v>
       </c>
-      <c r="AJ1" s="60" t="s">
+      <c r="AK1" s="60" t="s">
         <v>965</v>
       </c>
-      <c r="AK1" s="60" t="s">
+      <c r="AL1" s="60" t="s">
         <v>966</v>
       </c>
-      <c r="AL1" s="60" t="s">
+      <c r="AM1" s="60" t="s">
         <v>967</v>
-      </c>
-      <c r="AM1" s="60" t="s">
-        <v>968</v>
       </c>
       <c r="AN1" s="60"/>
       <c r="AO1" s="60"/>
@@ -10185,7 +10185,7 @@
     </row>
     <row r="29" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A29" s="44" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>547</v>
@@ -10780,7 +10780,7 @@
     </row>
     <row r="34" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A34" s="44" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>547</v>
@@ -12565,7 +12565,7 @@
     </row>
     <row r="49" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A49" s="44" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>548</v>
@@ -12922,7 +12922,7 @@
     </row>
     <row r="52" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A52" s="44" t="s">
-        <v>794</v>
+        <v>971</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>547</v>
@@ -13160,7 +13160,7 @@
     </row>
     <row r="54" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A54" s="44" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>547</v>
@@ -14469,7 +14469,7 @@
     </row>
     <row r="65" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A65" s="44" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>548</v>
@@ -23275,7 +23275,7 @@
     </row>
     <row r="139" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A139" s="44" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="B139" s="3" t="s">
         <v>547</v>
@@ -24227,7 +24227,7 @@
     </row>
     <row r="147" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A147" s="44" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="B147" s="3" t="s">
         <v>547</v>
@@ -25774,7 +25774,7 @@
     </row>
     <row r="160" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A160" s="44" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="B160" s="3" t="s">
         <v>549</v>
@@ -26607,7 +26607,7 @@
     </row>
     <row r="167" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A167" s="44" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="B167" s="3" t="s">
         <v>546</v>
@@ -27440,7 +27440,7 @@
     </row>
     <row r="174" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A174" s="44" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B174" s="3" t="s">
         <v>547</v>
@@ -27916,7 +27916,7 @@
     </row>
     <row r="178" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A178" s="44" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="B178" s="3" t="s">
         <v>546</v>
@@ -28154,7 +28154,7 @@
     </row>
     <row r="180" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A180" s="44" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B180" s="3" t="s">
         <v>547</v>
@@ -28749,7 +28749,7 @@
     </row>
     <row r="185" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A185" s="44" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B185" s="3" t="s">
         <v>547</v>
@@ -30653,7 +30653,7 @@
     </row>
     <row r="201" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A201" s="44" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="B201" s="3" t="s">
         <v>548</v>
@@ -32190,7 +32190,7 @@
     </row>
     <row r="214" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A214" s="44" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="B214" s="3" t="s">
         <v>546</v>
@@ -33499,12 +33499,12 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="62" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B2" s="62"/>
       <c r="C2" s="62"/>
@@ -33519,7 +33519,7 @@
         <v>205</v>
       </c>
       <c r="E4" s="40" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -33535,7 +33535,7 @@
         <v>562</v>
       </c>
       <c r="E6" s="46" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -33543,7 +33543,7 @@
         <v>563</v>
       </c>
       <c r="E7" s="46" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -33551,7 +33551,7 @@
         <v>206</v>
       </c>
       <c r="E8" s="46" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -33951,7 +33951,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="B38" t="s">
         <v>18</v>
@@ -34161,7 +34161,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="B53" t="s">
         <v>20</v>
@@ -35015,7 +35015,7 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="B114" t="s">
         <v>28</v>
@@ -35505,7 +35505,7 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="B149" t="s">
         <v>30</v>
@@ -35575,7 +35575,7 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="B154" t="s">
         <v>31</v>
@@ -36079,7 +36079,7 @@
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="B190" t="s">
         <v>34</v>
@@ -36457,7 +36457,7 @@
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="B217" t="s">
         <v>69</v>
@@ -36569,7 +36569,7 @@
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="B225" t="s">
         <v>80</v>
@@ -36597,7 +36597,7 @@
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="B227" t="s">
         <v>195</v>
@@ -36751,7 +36751,7 @@
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A238" s="8" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="B238" s="8" t="s">
         <v>195</v>
@@ -37230,7 +37230,7 @@
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A272" s="8" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="B272" s="8" t="s">
         <v>569</v>
@@ -37693,7 +37693,7 @@
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="B307" t="s">
         <v>741</v>
@@ -37763,7 +37763,7 @@
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="B312" t="s">
         <v>759</v>
@@ -37850,7 +37850,7 @@
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="B318" t="s">
         <v>759</v>
@@ -38049,7 +38049,7 @@
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A332" s="30" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="B332" s="30" t="s">
         <v>772</v>
@@ -38189,7 +38189,7 @@
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="B342" s="30" t="s">
         <v>784</v>
@@ -38203,7 +38203,7 @@
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="B343" s="30" t="s">
         <v>784</v>
@@ -38248,7 +38248,7 @@
         <v>100</v>
       </c>
       <c r="B346" s="30" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C346" s="9" t="s">
         <v>96</v>
@@ -38262,7 +38262,7 @@
         <v>117</v>
       </c>
       <c r="B347" s="30" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C347" s="9" t="s">
         <v>98</v>
@@ -38276,7 +38276,7 @@
         <v>115</v>
       </c>
       <c r="B348" s="30" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C348" s="9" t="s">
         <v>96</v>
@@ -38290,7 +38290,7 @@
         <v>139</v>
       </c>
       <c r="B349" s="30" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C349" s="9" t="s">
         <v>96</v>
@@ -38304,7 +38304,7 @@
         <v>111</v>
       </c>
       <c r="B350" s="30" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C350" s="9" t="s">
         <v>96</v>
@@ -38318,7 +38318,7 @@
         <v>105</v>
       </c>
       <c r="B351" s="30" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C351" s="9" t="s">
         <v>98</v>
@@ -38332,7 +38332,7 @@
         <v>399</v>
       </c>
       <c r="B352" s="30" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C352" s="9" t="s">
         <v>97</v>
@@ -38346,7 +38346,7 @@
         <v>109</v>
       </c>
       <c r="B353" s="30" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C353" s="9" t="s">
         <v>98</v>
@@ -38360,7 +38360,7 @@
         <v>736</v>
       </c>
       <c r="B354" s="30" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C354" s="9" t="s">
         <v>96</v>
@@ -38374,7 +38374,7 @@
         <v>198</v>
       </c>
       <c r="B355" s="30" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C355" s="9" t="s">
         <v>96</v>
@@ -38385,10 +38385,10 @@
     </row>
     <row r="356" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A356" s="27" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B356" s="47" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C356" s="28" t="s">
         <v>547</v>
@@ -38397,7 +38397,7 @@
         <v>96</v>
       </c>
       <c r="E356" s="29" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.2">
@@ -38405,7 +38405,7 @@
         <v>123</v>
       </c>
       <c r="B357" s="30" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C357" s="9" t="s">
         <v>96</v>
@@ -38416,10 +38416,10 @@
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A358" s="8" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="B358" s="39" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C358" s="10" t="s">
         <v>98</v>
@@ -38433,7 +38433,7 @@
         <v>117</v>
       </c>
       <c r="B359" s="30" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="C359" s="9" t="s">
         <v>96</v>
@@ -38444,10 +38444,10 @@
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="B360" s="30" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="C360" s="9" t="s">
         <v>98</v>
@@ -38461,7 +38461,7 @@
         <v>139</v>
       </c>
       <c r="B361" s="30" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="C361" s="9" t="s">
         <v>97</v>
@@ -38475,7 +38475,7 @@
         <v>111</v>
       </c>
       <c r="B362" s="30" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="C362" s="9" t="s">
         <v>97</v>
@@ -38489,7 +38489,7 @@
         <v>393</v>
       </c>
       <c r="B363" s="30" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="C363" s="9" t="s">
         <v>98</v>
@@ -38503,7 +38503,7 @@
         <v>399</v>
       </c>
       <c r="B364" s="30" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="C364" s="9" t="s">
         <v>96</v>
@@ -38517,7 +38517,7 @@
         <v>109</v>
       </c>
       <c r="B365" s="30" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="C365" s="9" t="s">
         <v>99</v>
@@ -38531,7 +38531,7 @@
         <v>736</v>
       </c>
       <c r="B366" s="30" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="C366" s="9" t="s">
         <v>97</v>
@@ -38545,7 +38545,7 @@
         <v>104</v>
       </c>
       <c r="B367" s="30" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="C367" s="9" t="s">
         <v>98</v>
@@ -38559,7 +38559,7 @@
         <v>458</v>
       </c>
       <c r="B368" s="30" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="C368" s="9" t="s">
         <v>98</v>
@@ -38573,7 +38573,7 @@
         <v>191</v>
       </c>
       <c r="B369" s="30" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="C369" s="9" t="s">
         <v>96</v>
@@ -38587,7 +38587,7 @@
         <v>124</v>
       </c>
       <c r="B370" s="39" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="C370" s="10" t="s">
         <v>98</v>
@@ -38601,7 +38601,7 @@
         <v>167</v>
       </c>
       <c r="B371" s="30" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="C371" s="9" t="s">
         <v>96</v>
@@ -38615,7 +38615,7 @@
         <v>117</v>
       </c>
       <c r="B372" s="30" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="C372" s="9" t="s">
         <v>98</v>
@@ -38629,7 +38629,7 @@
         <v>164</v>
       </c>
       <c r="B373" s="30" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="C373" s="9" t="s">
         <v>96</v>
@@ -38643,7 +38643,7 @@
         <v>111</v>
       </c>
       <c r="B374" s="30" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="C374" s="9" t="s">
         <v>96</v>
@@ -38657,7 +38657,7 @@
         <v>180</v>
       </c>
       <c r="B375" s="30" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="C375" s="9" t="s">
         <v>99</v>
@@ -38668,10 +38668,10 @@
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B376" s="30" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="C376" s="9" t="s">
         <v>96</v>
@@ -38685,7 +38685,7 @@
         <v>137</v>
       </c>
       <c r="B377" s="30" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="C377" s="9" t="s">
         <v>98</v>
@@ -38696,10 +38696,10 @@
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B378" s="30" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="C378" s="9" t="s">
         <v>99</v>
@@ -38713,7 +38713,7 @@
         <v>94</v>
       </c>
       <c r="B379" s="30" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="C379" s="9" t="s">
         <v>96</v>
@@ -38724,10 +38724,10 @@
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A380" s="8" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B380" s="39" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="C380" s="10" t="s">
         <v>98</v>
@@ -38741,7 +38741,7 @@
         <v>258</v>
       </c>
       <c r="B381" s="30" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C381" s="9" t="s">
         <v>99</v>
@@ -38755,7 +38755,7 @@
         <v>178</v>
       </c>
       <c r="B382" s="30" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C382" s="9" t="s">
         <v>96</v>
@@ -38769,7 +38769,7 @@
         <v>172</v>
       </c>
       <c r="B383" s="30" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C383" s="9" t="s">
         <v>96</v>
@@ -38783,7 +38783,7 @@
         <v>187</v>
       </c>
       <c r="B384" s="30" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C384" s="9" t="s">
         <v>96</v>
@@ -38797,7 +38797,7 @@
         <v>101</v>
       </c>
       <c r="B385" s="30" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C385" s="9" t="s">
         <v>99</v>
@@ -38811,7 +38811,7 @@
         <v>180</v>
       </c>
       <c r="B386" s="30" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C386" s="9" t="s">
         <v>98</v>
@@ -38825,7 +38825,7 @@
         <v>119</v>
       </c>
       <c r="B387" s="30" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C387" s="9" t="s">
         <v>96</v>
@@ -38839,7 +38839,7 @@
         <v>109</v>
       </c>
       <c r="B388" s="30" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C388" s="9" t="s">
         <v>98</v>
@@ -38853,7 +38853,7 @@
         <v>435</v>
       </c>
       <c r="B389" s="30" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C389" s="9" t="s">
         <v>99</v>
@@ -38867,7 +38867,7 @@
         <v>191</v>
       </c>
       <c r="B390" s="30" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C390" s="9" t="s">
         <v>97</v>
@@ -38878,10 +38878,10 @@
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B391" s="30" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C391" s="9" t="s">
         <v>98</v>
@@ -38895,7 +38895,7 @@
         <v>94</v>
       </c>
       <c r="B392" s="30" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C392" s="9" t="s">
         <v>98</v>
@@ -38909,7 +38909,7 @@
         <v>171</v>
       </c>
       <c r="B393" s="30" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C393" s="9" t="s">
         <v>99</v>
@@ -38923,7 +38923,7 @@
         <v>165</v>
       </c>
       <c r="B394" s="39" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C394" s="10" t="s">
         <v>96</v>
@@ -38937,7 +38937,7 @@
         <v>167</v>
       </c>
       <c r="B395" s="30" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="C395" s="9" t="s">
         <v>97</v>
@@ -38951,7 +38951,7 @@
         <v>258</v>
       </c>
       <c r="B396" s="30" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="C396" s="9" t="s">
         <v>98</v>
@@ -38965,7 +38965,7 @@
         <v>178</v>
       </c>
       <c r="B397" s="30" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="C397" s="9" t="s">
         <v>97</v>
@@ -38979,7 +38979,7 @@
         <v>100</v>
       </c>
       <c r="B398" s="30" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="C398" s="9" t="s">
         <v>97</v>
@@ -38993,7 +38993,7 @@
         <v>283</v>
       </c>
       <c r="B399" s="30" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="C399" s="9" t="s">
         <v>99</v>
@@ -39007,7 +39007,7 @@
         <v>180</v>
       </c>
       <c r="B400" s="30" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="C400" s="9" t="s">
         <v>96</v>
@@ -39021,7 +39021,7 @@
         <v>399</v>
       </c>
       <c r="B401" s="30" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="C401" s="9" t="s">
         <v>97</v>
@@ -39035,7 +39035,7 @@
         <v>119</v>
       </c>
       <c r="B402" s="30" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="C402" s="9" t="s">
         <v>97</v>
@@ -39046,10 +39046,10 @@
     </row>
     <row r="403" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A403" s="27" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="B403" s="47" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="C403" s="28" t="s">
         <v>547</v>
@@ -39058,7 +39058,7 @@
         <v>97</v>
       </c>
       <c r="E403" s="29" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="404" spans="1:5" x14ac:dyDescent="0.2">
@@ -39066,7 +39066,7 @@
         <v>122</v>
       </c>
       <c r="B404" s="30" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="C404" s="9" t="s">
         <v>98</v>
@@ -39080,7 +39080,7 @@
         <v>157</v>
       </c>
       <c r="B405" s="30" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="C405" s="9" t="s">
         <v>96</v>
@@ -39094,7 +39094,7 @@
         <v>171</v>
       </c>
       <c r="B406" s="39" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="C406" s="10" t="s">
         <v>98</v>
@@ -39108,7 +39108,7 @@
         <v>119</v>
       </c>
       <c r="B407" s="30" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="C407" s="9" t="s">
         <v>96</v>
@@ -39122,7 +39122,7 @@
         <v>164</v>
       </c>
       <c r="B408" s="30" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="C408" s="9" t="s">
         <v>97</v>
@@ -39137,7 +39137,7 @@
         <v>188</v>
       </c>
       <c r="B409" s="30" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="C409" s="9" t="s">
         <v>97</v>
@@ -39151,7 +39151,7 @@
         <v>109</v>
       </c>
       <c r="B410" s="30" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="C410" s="9" t="s">
         <v>96</v>
@@ -39165,7 +39165,7 @@
         <v>151</v>
       </c>
       <c r="B411" s="30" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="C411" s="9" t="s">
         <v>96</v>
@@ -39179,7 +39179,7 @@
         <v>171</v>
       </c>
       <c r="B412" s="30" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="C412" s="9" t="s">
         <v>96</v>
@@ -39193,7 +39193,7 @@
         <v>165</v>
       </c>
       <c r="B413" s="30" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="C413" s="9" t="s">
         <v>97</v>
@@ -39207,7 +39207,7 @@
         <v>537</v>
       </c>
       <c r="B414" s="30" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="C414" s="9" t="s">
         <v>97</v>
@@ -39221,7 +39221,7 @@
         <v>156</v>
       </c>
       <c r="B415" s="39" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="C415" s="10" t="s">
         <v>96</v>
@@ -39235,7 +39235,7 @@
         <v>100</v>
       </c>
       <c r="B416" s="30" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="C416" s="9" t="s">
         <v>96</v>
@@ -39249,7 +39249,7 @@
         <v>139</v>
       </c>
       <c r="B417" s="30" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="C417" s="9" t="s">
         <v>96</v>
@@ -39264,7 +39264,7 @@
         <v>188</v>
       </c>
       <c r="B418" s="30" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="C418" s="9" t="s">
         <v>96</v>
@@ -39278,7 +39278,7 @@
         <v>501</v>
       </c>
       <c r="B419" s="30" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="C419" s="9" t="s">
         <v>96</v>
@@ -39292,7 +39292,7 @@
         <v>130</v>
       </c>
       <c r="B420" s="30" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="C420" s="9" t="s">
         <v>97</v>
@@ -39306,7 +39306,7 @@
         <v>123</v>
       </c>
       <c r="B421" s="30" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="C421" s="9" t="s">
         <v>97</v>
@@ -39320,7 +39320,7 @@
         <v>151</v>
       </c>
       <c r="B422" s="30" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="C422" s="9" t="s">
         <v>98</v>
@@ -39334,7 +39334,7 @@
         <v>171</v>
       </c>
       <c r="B423" s="30" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="C423" s="9" t="s">
         <v>98</v>
@@ -39348,7 +39348,7 @@
         <v>156</v>
       </c>
       <c r="B424" s="39" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="C424" s="10" t="s">
         <v>98</v>
@@ -39362,7 +39362,7 @@
         <v>129</v>
       </c>
       <c r="B425" s="30" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="C425" s="9" t="s">
         <v>96</v>
@@ -39376,7 +39376,7 @@
         <v>180</v>
       </c>
       <c r="B426" s="30" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="C426" s="9" t="s">
         <v>98</v>
@@ -39391,7 +39391,7 @@
         <v>109</v>
       </c>
       <c r="B427" s="30" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="C427" s="9" t="s">
         <v>98</v>
@@ -39405,7 +39405,7 @@
         <v>300</v>
       </c>
       <c r="B428" s="30" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="C428" s="9" t="s">
         <v>99</v>
@@ -39419,7 +39419,7 @@
         <v>122</v>
       </c>
       <c r="B429" s="30" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="C429" s="9" t="s">
         <v>99</v>
@@ -39433,7 +39433,7 @@
         <v>113</v>
       </c>
       <c r="B430" s="39" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="C430" s="10" t="s">
         <v>99</v>
@@ -39447,7 +39447,7 @@
         <v>266</v>
       </c>
       <c r="B431" s="30" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="C431" s="9" t="s">
         <v>99</v>
@@ -39461,7 +39461,7 @@
         <v>188</v>
       </c>
       <c r="B432" s="30" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="C432" s="9" t="s">
         <v>97</v>
@@ -39476,7 +39476,7 @@
         <v>130</v>
       </c>
       <c r="B433" s="30" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="C433" s="9" t="s">
         <v>96</v>
@@ -39490,7 +39490,7 @@
         <v>399</v>
       </c>
       <c r="B434" s="30" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="C434" s="9" t="s">
         <v>96</v>
@@ -39504,7 +39504,7 @@
         <v>438</v>
       </c>
       <c r="B435" s="30" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="C435" s="9" t="s">
         <v>99</v>
@@ -39518,7 +39518,7 @@
         <v>514</v>
       </c>
       <c r="B436" s="30" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="C436" s="9" t="s">
         <v>99</v>
@@ -39532,7 +39532,7 @@
         <v>121</v>
       </c>
       <c r="B437" s="30" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="C437" s="9" t="s">
         <v>96</v>
@@ -39546,7 +39546,7 @@
         <v>94</v>
       </c>
       <c r="B438" s="39" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="C438" s="10" t="s">
         <v>96</v>
@@ -39560,7 +39560,7 @@
         <v>100</v>
       </c>
       <c r="B439" s="30" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="C439" s="9" t="s">
         <v>97</v>
@@ -39574,7 +39574,7 @@
         <v>139</v>
       </c>
       <c r="B440" s="30" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="C440" s="9" t="s">
         <v>97</v>
@@ -39594,7 +39594,7 @@
         <v>130</v>
       </c>
       <c r="B441" s="30" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="C441" s="9" t="s">
         <v>97</v>
@@ -39614,7 +39614,7 @@
         <v>358</v>
       </c>
       <c r="B442" s="30" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="C442" s="9" t="s">
         <v>99</v>
@@ -39634,7 +39634,7 @@
         <v>180</v>
       </c>
       <c r="B443" s="30" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="C443" s="9" t="s">
         <v>96</v>
@@ -39654,7 +39654,7 @@
         <v>186</v>
       </c>
       <c r="B444" s="30" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="C444" s="9" t="s">
         <v>97</v>
@@ -39675,7 +39675,7 @@
         <v>105</v>
       </c>
       <c r="B445" s="30" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="C445" s="9" t="s">
         <v>96</v>
@@ -39696,7 +39696,7 @@
         <v>399</v>
       </c>
       <c r="B446" s="30" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="C446" s="9" t="s">
         <v>97</v>
@@ -39716,7 +39716,7 @@
         <v>119</v>
       </c>
       <c r="B447" s="30" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="C447" s="9" t="s">
         <v>97</v>
@@ -39736,7 +39736,7 @@
         <v>737</v>
       </c>
       <c r="B448" s="30" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="C448" s="9" t="s">
         <v>96</v>
@@ -39756,7 +39756,7 @@
         <v>171</v>
       </c>
       <c r="B449" s="30" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="C449" s="9" t="s">
         <v>99</v>
@@ -39776,7 +39776,7 @@
         <v>121</v>
       </c>
       <c r="B450" s="30" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="C450" s="9" t="s">
         <v>97</v>
@@ -39796,7 +39796,7 @@
         <v>165</v>
       </c>
       <c r="B451" s="30" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="C451" s="9" t="s">
         <v>96</v>
@@ -39816,7 +39816,7 @@
         <v>124</v>
       </c>
       <c r="B452" s="30" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="C452" s="9" t="s">
         <v>96</v>
@@ -39836,7 +39836,7 @@
         <v>113</v>
       </c>
       <c r="B453" s="8" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="C453" s="10" t="s">
         <v>96</v>
@@ -39856,7 +39856,7 @@
         <v>139</v>
       </c>
       <c r="B454" s="30" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="C454" s="9" t="s">
         <v>96</v>
@@ -39876,7 +39876,7 @@
         <v>134</v>
       </c>
       <c r="B455" s="30" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="C455" s="9" t="s">
         <v>96</v>
@@ -39897,7 +39897,7 @@
         <v>105</v>
       </c>
       <c r="B456" s="30" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="C456" s="9" t="s">
         <v>98</v>
@@ -39911,7 +39911,7 @@
         <v>399</v>
       </c>
       <c r="B457" s="30" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="C457" s="9" t="s">
         <v>96</v>
@@ -39925,7 +39925,7 @@
         <v>119</v>
       </c>
       <c r="B458" s="30" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="C458" s="9" t="s">
         <v>96</v>
@@ -39939,7 +39939,7 @@
         <v>435</v>
       </c>
       <c r="B459" s="30" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="C459" s="9" t="s">
         <v>96</v>
@@ -39953,7 +39953,7 @@
         <v>124</v>
       </c>
       <c r="B460" s="30" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="C460" s="9" t="s">
         <v>98</v>
@@ -39967,7 +39967,7 @@
         <v>113</v>
       </c>
       <c r="B461" s="39" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="C461" s="10" t="s">
         <v>98</v>
@@ -39981,7 +39981,7 @@
         <v>353</v>
       </c>
       <c r="B462" s="30" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="C462" s="9" t="s">
         <v>99</v>
@@ -39995,7 +39995,7 @@
         <v>180</v>
       </c>
       <c r="B463" s="30" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="C463" s="9" t="s">
         <v>98</v>
@@ -40009,7 +40009,7 @@
         <v>105</v>
       </c>
       <c r="B464" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="C464" s="9" t="s">
         <v>96</v>
@@ -40023,7 +40023,7 @@
         <v>399</v>
       </c>
       <c r="B465" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="C465" s="9" t="s">
         <v>97</v>
@@ -40037,7 +40037,7 @@
         <v>419</v>
       </c>
       <c r="B466" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="C466" s="9" t="s">
         <v>96</v>
@@ -40051,7 +40051,7 @@
         <v>438</v>
       </c>
       <c r="B467" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="C467" s="9" t="s">
         <v>98</v>
@@ -40065,7 +40065,7 @@
         <v>124</v>
       </c>
       <c r="B468" s="39" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="C468" s="10" t="s">
         <v>99</v>
@@ -40076,10 +40076,10 @@
     </row>
     <row r="469" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B469" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="C469" s="9" t="s">
         <v>96</v>
@@ -40093,7 +40093,7 @@
         <v>130</v>
       </c>
       <c r="B470" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="C470" s="9" t="s">
         <v>96</v>
@@ -40107,7 +40107,7 @@
         <v>353</v>
       </c>
       <c r="B471" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="C471" s="9" t="s">
         <v>98</v>
@@ -40121,7 +40121,7 @@
         <v>419</v>
       </c>
       <c r="B472" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="C472" s="9" t="s">
         <v>97</v>
@@ -40135,7 +40135,7 @@
         <v>171</v>
       </c>
       <c r="B473" s="8" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="C473" s="10" t="s">
         <v>98</v>
@@ -40149,7 +40149,7 @@
         <v>174</v>
       </c>
       <c r="B474" s="53" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="C474" s="56" t="s">
         <v>96</v>
@@ -40165,7 +40165,7 @@
         <v>178</v>
       </c>
       <c r="B475" s="53" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="C475" s="56" t="s">
         <v>96</v>
@@ -40181,7 +40181,7 @@
         <v>327</v>
       </c>
       <c r="B476" s="53" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="C476" s="56" t="s">
         <v>99</v>
@@ -40197,7 +40197,7 @@
         <v>169</v>
       </c>
       <c r="B477" s="53" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="C477" s="56" t="s">
         <v>96</v>
@@ -40213,7 +40213,7 @@
         <v>419</v>
       </c>
       <c r="B478" s="53" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="C478" s="56" t="s">
         <v>96</v>
@@ -40226,10 +40226,10 @@
     </row>
     <row r="479" spans="1:6" s="55" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A479" s="54" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="B479" s="53" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="C479" s="56" t="s">
         <v>96</v>
@@ -40245,7 +40245,7 @@
         <v>782</v>
       </c>
       <c r="B480" s="53" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="C480" s="56" t="s">
         <v>96</v>
@@ -40261,7 +40261,7 @@
         <v>130</v>
       </c>
       <c r="B481" s="53" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="C481" s="56" t="s">
         <v>97</v>
@@ -40277,7 +40277,7 @@
         <v>106</v>
       </c>
       <c r="B482" s="53" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="C482" s="56" t="s">
         <v>96</v>
@@ -40768,7 +40768,7 @@
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="B16" s="17" t="s">
         <v>240</v>
@@ -43342,7 +43342,7 @@
     </row>
     <row r="55" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A55" s="16" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B55" s="17" t="s">
         <v>301</v>
@@ -44533,7 +44533,7 @@
         <v>504</v>
       </c>
       <c r="B73" s="17" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>583</v>
@@ -46510,7 +46510,7 @@
     </row>
     <row r="103" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A103" s="16" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B103" s="17" t="s">
         <v>374</v>
@@ -49813,7 +49813,7 @@
         <v>407</v>
       </c>
       <c r="B153" s="17" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="C153" s="3" t="s">
         <v>547</v>
@@ -50800,7 +50800,7 @@
     </row>
     <row r="168" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A168" s="16" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="B168" s="17" t="s">
         <v>155</v>
@@ -51133,7 +51133,7 @@
         <v>477</v>
       </c>
       <c r="B173" s="17" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="C173" s="3" t="s">
         <v>581</v>
@@ -52846,7 +52846,7 @@
     </row>
     <row r="199" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A199" s="16" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B199" s="17" t="s">
         <v>516</v>
@@ -53179,7 +53179,7 @@
         <v>522</v>
       </c>
       <c r="B204" s="17" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="C204" s="3" t="s">
         <v>582</v>
@@ -54034,7 +54034,7 @@
     </row>
     <row r="217" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A217" s="16" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B217" s="17" t="s">
         <v>542</v>
